--- a/datamining/modi_data/etcdata.xlsx
+++ b/datamining/modi_data/etcdata.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Documents\GitHub\yooniverse\datamining\modi_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8936CFF4-5E60-4CF8-9C57-DB010E03D503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -217,12 +223,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -230,8 +236,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,15 +290,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -327,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,14 +625,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,9 +648,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -597,9 +659,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -608,9 +670,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -619,9 +681,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -630,9 +692,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -641,9 +703,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -652,9 +714,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -663,9 +725,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -674,9 +736,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>1284</v>
+        <v>1304</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -685,9 +747,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1447</v>
+        <v>1470</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -696,9 +758,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1554</v>
+        <v>1581</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -707,9 +769,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1917</v>
+        <v>1950</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -718,9 +780,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1929</v>
+        <v>1962</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -729,9 +791,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1951</v>
+        <v>1984</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -740,9 +802,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>2092</v>
+        <v>2125</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -751,9 +813,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>2265</v>
+        <v>2300</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -762,9 +824,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>2375</v>
+        <v>2413</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -773,9 +835,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>2532</v>
+        <v>2572</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -784,9 +846,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>2534</v>
+        <v>2574</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -795,9 +857,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>2672</v>
+        <v>2713</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -806,9 +868,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>2734</v>
+        <v>2777</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -817,9 +879,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>2760</v>
+        <v>2803</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -828,9 +890,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>2773</v>
+        <v>2816</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -839,9 +901,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>2958</v>
+        <v>3005</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -850,9 +912,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>3137</v>
+        <v>3184</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -861,9 +923,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3264</v>
+        <v>3311</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -872,9 +934,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>3265</v>
+        <v>3312</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -883,9 +945,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>3283</v>
+        <v>3330</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -894,9 +956,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>3373</v>
+        <v>3421</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -905,9 +967,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>3395</v>
+        <v>3443</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -916,9 +978,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>3426</v>
+        <v>3474</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -927,9 +989,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>3445</v>
+        <v>3493</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -938,9 +1000,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>3839</v>
+        <v>3893</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -949,9 +1011,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>3844</v>
+        <v>3898</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -960,9 +1022,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>3982</v>
+        <v>4040</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -971,9 +1033,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>4067</v>
+        <v>4126</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -982,9 +1044,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>4078</v>
+        <v>4137</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -993,9 +1055,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>4100</v>
+        <v>4159</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1004,9 +1066,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>4247</v>
+        <v>4307</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1015,9 +1077,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>4289</v>
+        <v>4350</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1026,9 +1088,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>4506</v>
+        <v>4572</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1038,6 +1100,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datamining/modi_data/etcdata.xlsx
+++ b/datamining/modi_data/etcdata.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Documents\GitHub\yooniverse\datamining\modi_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8936CFF4-5E60-4CF8-9C57-DB010E03D503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -223,12 +217,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,15 +230,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -290,23 +277,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -348,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,27 +359,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,24 +393,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,19 +568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>17</v>
       </c>
@@ -659,7 +597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>25</v>
       </c>
@@ -670,7 +608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>27</v>
       </c>
@@ -681,7 +619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>162</v>
       </c>
@@ -692,7 +630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>171</v>
       </c>
@@ -703,7 +641,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>331</v>
       </c>
@@ -714,7 +652,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>891</v>
       </c>
@@ -725,7 +663,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1113</v>
       </c>
@@ -736,7 +674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>1304</v>
       </c>
@@ -747,7 +685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1470</v>
       </c>
@@ -758,7 +696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1581</v>
       </c>
@@ -769,7 +707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1950</v>
       </c>
@@ -780,7 +718,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1962</v>
       </c>
@@ -791,7 +729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1984</v>
       </c>
@@ -802,7 +740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2125</v>
       </c>
@@ -813,7 +751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2300</v>
       </c>
@@ -824,7 +762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>2413</v>
       </c>
@@ -835,7 +773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>2572</v>
       </c>
@@ -846,7 +784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>2574</v>
       </c>
@@ -857,7 +795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>2713</v>
       </c>
@@ -868,7 +806,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>2777</v>
       </c>
@@ -879,7 +817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>2803</v>
       </c>
@@ -890,7 +828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>2816</v>
       </c>
@@ -901,7 +839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>3005</v>
       </c>
@@ -912,7 +850,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>3184</v>
       </c>
@@ -923,7 +861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>3311</v>
       </c>
@@ -934,7 +872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>3312</v>
       </c>
@@ -945,7 +883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>3330</v>
       </c>
@@ -956,7 +894,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>3421</v>
       </c>
@@ -967,7 +905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>3443</v>
       </c>
@@ -978,7 +916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>3474</v>
       </c>
@@ -989,7 +927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>3493</v>
       </c>
@@ -1000,7 +938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>3893</v>
       </c>
@@ -1011,7 +949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>3898</v>
       </c>
@@ -1022,7 +960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>4040</v>
       </c>
@@ -1033,7 +971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>4126</v>
       </c>
@@ -1044,7 +982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>4137</v>
       </c>
@@ -1055,7 +993,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>4159</v>
       </c>
@@ -1066,7 +1004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>4307</v>
       </c>
@@ -1077,7 +1015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>4350</v>
       </c>
@@ -1088,7 +1026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>4572</v>
       </c>
@@ -1100,7 +1038,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>